--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/fc2.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/fc2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,840 +468,924 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qual é a finalidade principal das normas apresentadas no Capítulo 1?</t>
+          <t>Como a Política Nacional de Defesa define o conceito de Segurança Nacional?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Orientar a elaboração dos Planos de Mobilização Militar das Forças Armadas e do Ministério da Defesa (Apêndice Estratégico e Plano Setorial), conforme o item 1.1.</t>
+          <t>É a condição que permite ao País preservar sua soberania e integridade territorial, livre de pressões e ameaças, conforme o item 2.1.1.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág. 19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>O que significam as siglas AEMM e PSMM no contexto do planejamento do Ministério da Defesa?</t>
+          <t>O que é uma "Crise" no contexto da concepção de emprego conjunto?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Significam, respectivamente, Apêndice Estratégico de Mobilização Militar e Plano Setorial de Mobilização Militar, conforme o item 1.1.</t>
+          <t>É um conflito posicionado entre a paz e a guerra que exige gerenciamento para evitar agravamento, conforme o item 2.1.4.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág. 19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qual é o objetivo das normas em relação às entidades privadas e administração pública?</t>
+          <t>O que caracteriza a "Situação de Guerra" no emprego das Forças Armadas?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fornecer subsídios para ações estratégicas coordenadas pelo MD envolvendo entidades de interesse para o SISMOMIL e SINAMOB, conforme o item 1.2.2.</t>
+          <t>É o emprego do Poder Militar explorando a plenitude de sua violência na Defesa da Pátria, conforme o item 2.1.8.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág. 19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qual é a meta da Mobilização Militar aplicada no campo da defesa nacional?</t>
+          <t>Quais as características principais da "Situação de Normalidade"?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aumentar o poder de permanência em ação das FA, com a finalidade de propiciar o poder dissuasório do Estado, conforme o item 2.1.1.</t>
+          <t>Manutenção da ordem pública pelo Estado, estabilidade institucional e plena vigência das garantias individuais, conforme o item 2.2.1.1.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág. 20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Quem são os responsáveis pela elaboração dos Planos de Mobilização das Forças Singulares (P Mob Mar, P Mob Ter e P Mob Aepc)?</t>
+          <t>O que define a "Situação de Não-Normalidade"?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Os Órgãos de Direção Geral (ODG) das Forças Singulares, ou seja, EMA, EME e EMAER, conforme o item 2.1.6.</t>
+          <t>Ameaça à integridade nacional ou ordem pública que acarreta intervenção federal, estado de defesa ou sítio, conforme o item 2.2.1.2.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág. 20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O que acontece com a Lista de Necessidades do Planejamento (LNP) para salvaguardar o sigilo das operações?</t>
+          <t>Quem é o responsável pela elaboração do Planejamento Estratégico de Emprego Conjunto (PEECFA)?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ela sofre um processo de análise e descaracterização em ambiente segregado, tornando-se ostensiva após essa atividade, conforme o item 2.1.9.</t>
+          <t>O EMCFA, com assessoramento de representantes das Forças Armadas, conforme o item 2.2.1.3.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág. 20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Qual grupo realiza o processo de análise e descaracterização das Listas de Necessidades?</t>
+          <t>Qual a definição de "Conflito Armado" segundo a doutrina apresentada?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Um Grupo de Trabalho (GT) constituído por representantes da CHOC, CHELOG e dos EM das FS, coordenado pela SUBILOG, conforme o item 2.1.10.</t>
+          <t>Recurso utilizado por grupos politicamente organizados que empregam violência armada para impor sua vontade, conforme o item 2.2.2.2.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág. 21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O que define as "carências logísticas" no contexto do planejamento?</t>
+          <t>O que deve ser feito em caso de eclosão repentina de conflito ou fora do modelo convencional?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>São recursos logísticos extraídos das necessidades logísticas não passíveis de obtenção pelo escalão considerado, encaminhados ao escalão superior, conforme o item 2.1.15.</t>
+          <t>Deve ser ativado um Comando Operacional constituído por forças de pronto emprego, conforme o item 2.2.2.5.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág. 21</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Onde são consolidadas as carências não atendidas no âmbito do Ministério da Defesa?</t>
+          <t>Qual documento inicia o Planejamento Estratégico em estado de crise ou conflito?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No Plano Setorial de Mobilização Militar (PSMM), para busca de solução pelo SINAMOB, conforme o item 2.1.17.</t>
+          <t>A Diretriz Presidencial de Emprego de Defesa (DPED), conforme o item 2.2.2.3.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág. 21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Quais são as duas fases consideradas nos planejamentos da Mobilização Militar?</t>
+          <t>O que é a "Concepção de Emprego Conjunto"?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Preparo e Execução, conforme o item 2.2.1.</t>
+          <t>É a visualização de como alcançar a interoperabilidade para aplicar a expressão Militar do Poder Nacional, conforme o item 2.3.2.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Quando são implementadas, de modo acelerado e compulsório, as ações planejadas na fase do Preparo?</t>
+          <t>A divisão do planejamento em níveis estratégico, operacional e tático impede a simultaneidade das ações?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Na fase da Execução, após a decretação da Mobilização Nacional e a expedição da ordem de Mobilização Militar pelo MD, conforme o item 2.2.3.</t>
+          <t>Não, a simultaneidade é necessária para a evolução da consciência situacional em todas as fases, conforme o item 2.3.5.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Como devem ser agrupadas as carências de toda ordem nas Listas de Carências?</t>
+          <t>Quem representa o Nível Político e qual documento emite?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Por função logística (Fç Log), em ordem alfabética (Engenharia, Manutenção, RH, Salvamento, Saúde, Suprimento e Transporte), conforme o item 2.2.7.</t>
+          <t>O Presidente da República (Comandante Supremo), que emite a DPED, conforme o item 2.4.1.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>O que deve constar nos Planos de Mobilização em relação à previsão de atendimento das carências?</t>
+          <t>Quem representa o Nível Estratégico e quais diretrizes são emitidas nesse nível?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A previsão do atendimento por obtenções, esgotadas as capacidades logísticas de transferências internas de recursos existentes em cada Força, conforme o item 2.2.10, alínea 'a'.</t>
+          <t>O Ministério da Defesa (emite DMED) e o CEMCFA (emite DPEM), conforme os itens 2.5.1 e 2.5.2.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág. 23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Qual é o horizonte temporal considerado para a efetividade dos planejamentos de mobilização?</t>
+          <t>Qual é a responsabilidade do Comandante Operacional no Nível Operacional?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>O horizonte temporal de até 3 (três) anos, podendo ser encurtado ou dilatado conforme a análise da situação, conforme o item 2.2.15.</t>
+          <t>Elaborar o planejamento militar da campanha/operação com base no PEECFA, conforme o item 2.6.1.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág. 23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>O envio de um Plano de Mobilização ao MD interrompe o processo de planejamento na Força Singular?</t>
+          <t>Como a inteligência é tratada no Nível Operacional?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Não, deve haver continuidade da coleta de dados e constante atualização daqueles que integram o planejamento, conforme o item 2.2.12.</t>
+          <t>É intensificada pela integração do SIOP, SINDE e SISBIN para suprir necessidades do exame de situação, conforme o item 2.6.2.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág. 23</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>O que deve ser priorizado em ações relativas a Produtos de Defesa (PRODE) e Sistemas de Defesa (SD) no planejamento?</t>
+          <t>O que é realizado no Nível Tático de planejamento?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ações relativas à nacionalização, padronização, certificação, catalogação e a interoperabilidade logística entre as FS, conforme o item 2.3.3.</t>
+          <t>O detalhamento dos planos para batalhas e engajamentos pelas Forças Componentes, conforme o item 2.7.1.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág. 24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Como é definida a "interoperabilidade" no contexto das normas de mobilização?</t>
+          <t>O planejamento tático precisa esperar a conclusão do nível operacional?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Capacidade de sistemas ou Forças intercambiarem/acessarem serviços ou informações sem comprometer funcionalidades, otimizando recursos, conforme o item 2.3.4.</t>
+          <t>Não, pode ocorrer de maneira paralela e simultânea, dependendo da dinâmica dos fatos, conforme o item 2.7.3.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág. 24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>O que as Forças Singulares devem fazer ao receberem as Listas de Necessidades (LN)?</t>
+          <t>Quais são as principais atribuições do Comandante Supremo (CS)?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Confrontá-las com as disponibilidades e proceder à elaboração das Listas de Carências (LC), conforme o item 2.3.5.</t>
+          <t>Decidir o emprego das FA, ativar Comandos Operacionais, designar comandantes e aprovar o planejamento estratégico, conforme o item 2.8.1.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág. 24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Quem consolida as Listas de Necessidades das fases de planejamento (LNI, LNC, LNS) na Lista de Necessidades Final (LNF)?</t>
+          <t>Quem tem a competência de adjudicar meios aos Comandos Operacionais?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Os Comandos Logísticos (C Log) dos Comandos Operacionais (C Op) ativados, conforme o item 2.4.1, alínea 'd'.</t>
+          <t>O Ministro da Defesa, conforme o item 2.8.2, alínea 'f'.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Qual é o prazo para as FS encaminharem seus Planos de Deslocamento contendo as LNDE ao EMCFA?</t>
+          <t>Qual a função do Conselho Militar de Defesa (C Mi D)?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>30 (trinta) dias após o Planejamento Tático, conforme o item 2.4.1, alínea 'e'.</t>
+          <t>Assessorar o CS no emprego de meios e o Ministro da Defesa em suas atribuições, conforme o item 2.8.3.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>O que é excluído durante a descaracterização das Listas de Necessidades do Planejamento (LNP)?</t>
+          <t>O que cabe aos Comandantes de Força (Singulares) em relação aos Comandos Operacionais?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Todas as informações que fazem menção ou possam permitir a identificação da operação militar e/ou da Hipótese de Emprego (HE), conforme o item 2.4.1, alínea 'g'.</t>
+          <t>Fornecer os meios adjudicados e prestar o apoio logístico necessário, conforme o item 2.8.4.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>O que os Órgãos de Direção Setorial (ODS) produzem após analisarem as necessidades logísticas?</t>
+          <t>Quem coordena o deslocamento e a concentração estratégica dos meios adjudicados?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>As Listas de Necessidades Atendidas (LNA) e as decorrentes Listas de Carências (LC) para necessidades não atendidas, conforme o item 2.4.1, alínea 'j'.</t>
+          <t>O CEMCFA, por meio do CCLM, conforme o item 2.8.5, alínea 'i'.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág. 26</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Como o EMCFA levanta o custo total da operação militar planejada?</t>
+          <t>Qual a obrigação dos Comandantes de Comandos Operacionais para com o Ministro da Defesa?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Somando o custo da Lista de Carências Final das Forças Singulares (LCFFS) ao das Listas de Necessidades Atendidas (LNAFS), conforme o item 2.4.1, alínea 'm', item 2.</t>
+          <t>Manter o Ministro atualizado sobre o andamento das operações via EMCFA, conforme o item 2.8.6, alínea 'e'.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág. 26</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Qual é a função do SINAMOB após elaborar o Plano Nacional de Mobilização (PNM)?</t>
+          <t>O que fazem os Comandantes de Organizações Militares não adjudicadas na área do conflito?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Buscar na esfera política atender às demandas (Carências Logísticas) não solucionadas no âmbito do Sistema de Mobilização Militar, conforme o item 2.4.1, alínea 'n'.</t>
+          <t>Conduzem mobilização, apoio logístico e defesa de instalações sob sua responsabilidade, conforme o item 2.8.8.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág. 26</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>O que o Plano de Articulação e de Equipamento de Defesa (PAED) visa fortalecer?</t>
+          <t>Quais são os documentos de planejamento do Nível Estratégico listados na tabela de documentos?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Visa a busca de autonomia tecnológica e o fortalecimento da Base Industrial de Defesa (BID) do País, conforme o item 2.5.1.</t>
+          <t>DMED (Diretriz Ministerial), DPEM (Diretriz de Planejamento Militar) e PEECFA (Plano Estratégico), conforme o item 2.9.1.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 27</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Qual é a diferença fundamental de prazo e objetivo entre o PAED e os Planos de Mobilização Militar?</t>
+          <t>Qual a finalidade da Diretriz Presidencial de Emprego de Defesa (DPED)?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>O PAED é estratégico (visão de futuro), enquanto os Planos de Mobilização buscam atender carências em curto prazo para situações emergenciais, conforme o item 2.5.2.</t>
+          <t>Determinar a ativação de Comandos Operacionais e transmitir orientações políticas para solução do conflito, conforme o item 2.9.2.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 27</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Como o PAED interage com as carências logísticas durante o curso da mobilização?</t>
+          <t>Quem assessora a elaboração da minuta da DPED?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pode servir para acelerar a obtenção de projetos de maior prioridade ou incentivar a capacidade produtiva da BID, conforme os itens 2.5.3 e 2.5.4.</t>
+          <t>O Gabinete de Segurança Institucional (GSI/PR), ouvido o Ministério da Defesa, conforme o item 2.9.2.1.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>É possível incluir novas necessidades no PAED a partir dos levantamentos de mobilização?</t>
+          <t>Quem redige a minuta da DPED em situação de normalidade (planejamento de Hipóteses de Emprego)?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sim, necessidades ou carências não previstas em projetos já definidos no PAED poderão ser incluídas em novos projetos naquele plano, conforme o item 2.5.6.</t>
+          <t>A CAE, em coordenação com a CHOC e a CHELOG, conforme o item 2.9.2.2.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág. 28</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Qual é a diferença quanto ao sigilo entre o PAED e os Planos de Mobilização (PSMM)?</t>
+          <t>O que é a Diretriz Ministerial de Emprego de Defesa (DMED)?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>O PAED é ostensivo para apresentação à sociedade/negociação, enquanto o PSMM consolida planos no nível MD e depois no nível político (PNM), conforme o item 2.5.7, alínea 'b'.</t>
+          <t>Documento que orienta o planejamento estratégico do MD com base na DPED, elaborado pela CHOC/CAE/CHELOG, conforme o item 2.9.3.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág. 28</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Em que se baseiam, respectivamente, o PAED e os Planos de Mobilização?</t>
+          <t>Qual documento o Ministro da Defesa emite para determinar a confecção/atualização do PEECFA?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>O PAED tem como base a Estratégia Nacional de Defesa (END), enquanto os Planos de Mobilização têm como base o emprego das FA, conforme o item 2.5.7, alínea 'c'.</t>
+          <t>A Diretriz Ministerial de Emprego de Defesa (DMED), conforme o item 2.9.4.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág. 28</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Para que serve a Diretriz de Planejamento Estratégico Militar (DPEM)?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Orientar as atividades do EMCFA na elaboração ou atualização do PEECFA, conforme o item 2.9.5.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pág. 29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Quem é responsável pela confecção da DPEM?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A Chefia de Operações Conjuntas (CHOC), conforme o item 2.9.5.1.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Pág. 29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>A DPEM possui um formato rígido?</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Não, é um documento administrativo que deve se adequar às circunstâncias para prover informações aos planejadores, conforme o item 2.9.5.1.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Pág. 29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
     </row>
